--- a/ergasia3.xlsx
+++ b/ergasia3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0Uni\Uni\3rd Year\ΠΛΗ24\Εργασία 3\eap-weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82445E2-1459-477E-B31A-F00E1F1DB74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8D3710-7F28-4388-A908-22B167563DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{7554518E-40BA-4E82-8E4A-CB1E486DD75E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7554518E-40BA-4E82-8E4A-CB1E486DD75E}"/>
   </bookViews>
   <sheets>
     <sheet name="BS1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="S2" sheetId="5" r:id="rId5"/>
     <sheet name="S3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -146,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>Backlog Sprint 1</t>
   </si>
@@ -321,6 +318,12 @@
   </si>
   <si>
     <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Κατασκευή του main menu με λειτουργικά κουμπιά</t>
+  </si>
+  <si>
+    <t>Fetch του weather data και εγγραφή δεδομένων στην βάση</t>
   </si>
 </sst>
 </file>
@@ -580,23 +583,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
@@ -616,6 +607,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3475,53 +3478,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sprint 1"/>
-      <sheetName val="Sprint 2"/>
-      <sheetName val="Sprint 3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="B5">
-            <v>7</v>
-          </cell>
-          <cell r="C5">
-            <v>7</v>
-          </cell>
-          <cell r="D5">
-            <v>5</v>
-          </cell>
-          <cell r="E5">
-            <v>4</v>
-          </cell>
-          <cell r="F5">
-            <v>4</v>
-          </cell>
-          <cell r="G5">
-            <v>3</v>
-          </cell>
-          <cell r="H5">
-            <v>2</v>
-          </cell>
-          <cell r="I5">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -3821,8 +3777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835FE669-53DA-4B6E-8061-12A8C0EB354C}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3835,14 +3791,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3971,7 +3927,9 @@
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
@@ -3989,7 +3947,9 @@
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
@@ -4081,14 +4041,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4255,14 +4215,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4386,149 +4346,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>45356</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="16">
         <v>45357</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="16">
         <v>45358</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="16">
         <v>45359</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="16">
         <v>45360</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="18">
         <v>1</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="18">
         <v>6</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <v>0</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="18">
         <v>2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="18">
         <v>4</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="18">
         <v>5</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="18">
         <v>5</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="18">
         <v>1</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="18">
         <v>4</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="18">
         <v>5</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="18">
         <v>6</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="18">
         <v>6</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="18">
         <v>0</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="18">
         <v>3</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="18">
         <v>4</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="18">
         <v>5</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="23">
-        <f>SUM(B3:B6)</f>
+      <c r="B7" s="19">
+        <f t="shared" ref="B7:G7" si="0">SUM(B3:B6)</f>
         <v>18</v>
       </c>
-      <c r="C7" s="23">
-        <f>SUM(C3:C6)</f>
+      <c r="C7" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D7" s="23">
-        <f>SUM(D3:D6)</f>
+      <c r="D7" s="19">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E7" s="23">
-        <f>SUM(E3:E6)</f>
+      <c r="E7" s="19">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F7" s="23">
-        <f>SUM(F3:F6)</f>
+      <c r="F7" s="19">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G7" s="23">
-        <f>SUM(G3:G6)</f>
+      <c r="G7" s="19">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -4565,96 +4525,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
-    <row r="2" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>45361</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="16">
         <v>45362</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="18">
         <v>1</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <v>1</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="18">
         <v>3</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="18">
         <v>2</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="18">
         <v>3</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="18">
         <v>3</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="19">
         <f>SUM(B3:B6)</f>
         <v>9</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="19">
         <f>SUM(C3:C6)</f>
         <v>7</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="19">
         <f>SUM(D3:D6)</f>
         <v>5</v>
       </c>
@@ -4679,7 +4639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4982EDA1-B0AF-471D-94F8-E9E5FF2D42D4}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4690,98 +4650,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>45363</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="16">
         <v>45364</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="18">
         <v>1</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <v>1</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="18">
         <v>2</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="18">
         <v>1</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="18">
         <v>1</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="19">
         <f>SUM(B3:B6)</f>
         <v>7</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="19">
         <f>SUM(C3:C6)</f>
         <v>4</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="19">
         <f>SUM(D3:D6)</f>
         <v>6</v>
       </c>

--- a/ergasia3.xlsx
+++ b/ergasia3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0Uni\Uni\3rd Year\ΠΛΗ24\Εργασία 3\eap-weather\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasga\Desktop\eap2020-24\eap4oetos\pli24\ergasia 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8D3710-7F28-4388-A908-22B167563DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9306B9AF-0C28-4F35-ABA1-27AE5C8ACE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7554518E-40BA-4E82-8E4A-CB1E486DD75E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7554518E-40BA-4E82-8E4A-CB1E486DD75E}"/>
   </bookViews>
   <sheets>
     <sheet name="BS1" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -143,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>Backlog Sprint 1</t>
   </si>
@@ -324,6 +313,15 @@
   </si>
   <si>
     <t>Fetch του weather data και εγγραφή δεδομένων στην βάση</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Διόρθωση και βελτιστοποίηση </t>
+  </si>
+  <si>
+    <t>Εμφάνιση λίστας πόλεων και προβολή ημερομηνιών αναζήτησης</t>
+  </si>
+  <si>
+    <t>Εμφάνιση αριθμού αναζητήσεων και εκτύπωση σε αρχειο .txt</t>
   </si>
 </sst>
 </file>
@@ -711,7 +709,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -838,7 +836,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="184692672"/>
@@ -883,7 +881,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="45454848"/>
@@ -937,7 +935,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -967,7 +965,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="el-GR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1043,7 +1041,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1161,7 +1159,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="184692672"/>
@@ -1206,7 +1204,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="45454848"/>
@@ -1260,7 +1258,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1290,7 +1288,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="el-GR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1366,7 +1364,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1484,7 +1482,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="184692672"/>
@@ -1529,7 +1527,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="45454848"/>
@@ -1583,7 +1581,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1613,7 +1611,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="el-GR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3479,9 +3477,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3519,7 +3517,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3625,7 +3623,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3767,7 +3765,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3778,7 +3776,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,7 +3965,9 @@
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
@@ -3985,7 +3985,9 @@
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
@@ -4028,7 +4030,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4177,7 +4179,9 @@
       <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="D8" s="6" t="s">
         <v>35</v>
       </c>
